--- a/CoreRulebook/Data/healing.xlsx
+++ b/CoreRulebook/Data/healing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">EMP</t>
   </si>
   <si>
-    <t xml:space="preserve">Protects the target from being attacked any further if their health falls below 1HP. </t>
+    <t xml:space="preserve">Protects the target from being attacked any further if their health falls below 5HP. </t>
   </si>
   <si>
     <r>
@@ -678,7 +678,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Create a region where the undead cannot pass. Undead attempting to cross the barrier are ignited for 1d12 worth of holy damage, and a Major Burn. 
+    <t xml:space="preserve">Create a region where the Unlife cannot pass. Unlife attempting to cross the barrier are ignited for 1d12 worth of holy damage, and a Major Burn. 
 Shield fails when 30 damage has been done + 2 for every power point dedicated to the spell. Radius of ward is 10m. </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
     <t xml:space="preserve">FIN \\ (precision)</t>
   </si>
   <si>
-    <t xml:space="preserve">Grant the target unbreakable skin for 5 turns. Target has 100\% resistance to piercing damage, 50\% resistance to magic, but is takes 100\% more damage from bludgeoning damage. </t>
+    <t xml:space="preserve">Increase the target{\apos} AC by 10 for 5 minutes (25 combat rounds). Does not stack.</t>
   </si>
   <si>
     <t xml:space="preserve">Wall of a Million Blades \\ {\it heus nocivious}</t>
@@ -818,6 +818,21 @@
   </si>
   <si>
     <t xml:space="preserve">Create a wall up to 10 m long and 3m tall. This wall is composed of swirling magical blades that do 3d8 slashing damage to any creature that touches it. Wall has a strength of 10, and lasts 5 cycles. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aid Charm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target has HP ceiling raised by 5 points for 1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runic Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a Damage Type. Target is 10\% resistant to that damage type (+10\% for each PP) for 1 hour. </t>
   </si>
 </sst>
 </file>
@@ -1003,12 +1018,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1078,14 +1093,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="G36" activeCellId="0" sqref="G36"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1717,7 +1732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="49.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -1899,6 +1914,52 @@
       </c>
       <c r="G35" s="0" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/healing.xlsx
+++ b/CoreRulebook/Data/healing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -341,6 +341,15 @@
   </si>
   <si>
     <t xml:space="preserve">Restores a character to full health, and removes all negative status effects. Cannot be cast on the self. Takes 2 turns to cast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minefield Ward \\ {\it denarlium}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT \\ (precision)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lay magical {\it mines} in a 15m radius, with a 5m radius gap at the centre. You may designate a single safe route through the minefield (a path of width 0.5m). If a being touches any part of the minefield other than the path, the mines explode doinig (1+PP) damage of a type of the caster\apos{}s choosing. Each subsequent metre travelled triggers another explosion. </t>
   </si>
 </sst>
 </file>
@@ -436,12 +445,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -451,14 +460,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1297,6 +1306,29 @@
         <v>101</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/CoreRulebook/Data/healing.xlsx
+++ b/CoreRulebook/Data/healing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -118,17 +118,6 @@
     <t xml:space="preserve">Increase the target{\apos} AC by 10 for 5 minutes (25 combat rounds). Does not stack.</t>
   </si>
   <si>
-    <t xml:space="preserve">Trap Spell  \\ {\it  dolus}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN \\ (stealth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combine a magical ward with one of your existing spells. Cast the other spell first, then perform the trapping check.
-If successful, creates a hidden magical trap, with the effect of the original spell when triggered. The effects of the trap are less than the original spell, but more power points make the trap more powerful. 
-If you wish to keep a trap hidden from the GM, write down the location, spell and associated check values on a piece of paper, to be revealed when the trap is triggered. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sunburst \\ {\it sol maxima}</t>
   </si>
   <si>
@@ -168,7 +157,7 @@
     <t xml:space="preserve">Lesser Ward   \\ {\it  tueor}</t>
   </si>
   <si>
-    <t xml:space="preserve">Erects a semi-permanent barrier around an individual. This ward protects you from up to 15 damage of all types, before it fails. Ward may move with the target, and can be cast on self. 
+    <t xml:space="preserve">Erects a ward in a cylinder around an individual. Ward is 20cm larger in radius than the individual is wide, and 20cm taller. This ward protects you from up to 15 damage of all types, before it fails. Ward may move with the target, and can be cast on self. 
 Ward disintegrates after 1 day. </t>
   </si>
   <si>
@@ -262,7 +251,7 @@
     <t xml:space="preserve">Wall of a Million Blades \\ {\it heus nocivious}</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a wall up to 10 m long and 3m tall. This wall is composed of swirling magical blades that do 3d8 slashing damage to any creature that touches it. Wall has a strength of 10, and lasts 5 cycles. </t>
+    <t xml:space="preserve">Create a warded region up to 10 m long and 3m tall. This wall is composed of swirling magical blades that do 3d8 slashing damage to any creature that touches it. Wall has a strength of 10, and lasts 5 cycles. </t>
   </si>
   <si>
     <t xml:space="preserve">Ailment Charm \\ {\it  sana}</t>
@@ -333,8 +322,7 @@
     <t xml:space="preserve">Magical Stability Ward \\ {\it victoria maximus}</t>
   </si>
   <si>
-    <t xml:space="preserve">Creates a region where magic is safer and more successful: all spell checks in the warded area get + 2 bonus, and get Advantage. 
-Ward interferes with all other warding magic. </t>
+    <t xml:space="preserve">Creates a region where magic is safer and more successful: all spell checks in the warded area get + 2 bonus, and get Advantage. </t>
   </si>
   <si>
     <t xml:space="preserve">Total Health Ritual \\ {\it  vita maxima}</t>
@@ -445,12 +433,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -460,14 +448,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="G38" activeCellId="0" sqref="G38"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -662,26 +650,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -696,30 +684,30 @@
         <v>35</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>39</v>
@@ -736,90 +724,90 @@
         <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -828,19 +816,19 @@
         <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>52</v>
@@ -851,42 +839,42 @@
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D18" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>57</v>
@@ -897,111 +885,111 @@
         <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
@@ -1015,64 +1003,64 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D26" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1081,44 +1069,44 @@
         <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G27" s="2" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1127,67 +1115,67 @@
         <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1199,134 +1187,111 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D33" s="1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="1" t="n">
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
